--- a/Code/Results/Cases/Case_1_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.1425304360311941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1766640848811818</v>
+        <v>0.04416460176246062</v>
       </c>
       <c r="E2">
-        <v>1.765433349908136</v>
+        <v>0.4396191691992186</v>
       </c>
       <c r="F2">
-        <v>5.08508805273766</v>
+        <v>1.528290297222981</v>
       </c>
       <c r="G2">
-        <v>6.047613846318768</v>
+        <v>1.673767081463382</v>
       </c>
       <c r="H2">
-        <v>2.855195282128705</v>
+        <v>1.010542361786406</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.288064236591595</v>
+        <v>1.995241137946778</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235677311870532</v>
+        <v>0.1329091933101978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1481600608387623</v>
+        <v>0.03830832642090343</v>
       </c>
       <c r="E3">
-        <v>1.477819511624602</v>
+        <v>0.3823479279035951</v>
       </c>
       <c r="F3">
-        <v>4.299387531526605</v>
+        <v>1.363286054659909</v>
       </c>
       <c r="G3">
-        <v>5.107744382705221</v>
+        <v>1.472460773835678</v>
       </c>
       <c r="H3">
-        <v>2.417775887462483</v>
+        <v>0.9231199012414208</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.836929003758627</v>
+        <v>1.846526605564804</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864902854</v>
+        <v>0.1270661492628875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1316666761483134</v>
+        <v>0.03472637085036467</v>
       </c>
       <c r="E4">
-        <v>1.311801910483425</v>
+        <v>0.3474053453013823</v>
       </c>
       <c r="F4">
-        <v>3.839723242350004</v>
+        <v>1.262945067803372</v>
       </c>
       <c r="G4">
-        <v>4.557876019152104</v>
+        <v>1.349747030403535</v>
       </c>
       <c r="H4">
-        <v>2.162425671209206</v>
+        <v>0.8702008080870769</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.56009691549059</v>
+        <v>1.755520437593759</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212374599</v>
+        <v>0.1247015078378411</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1251451355864077</v>
+        <v>0.03326964694228707</v>
       </c>
       <c r="E5">
-        <v>1.246240096146465</v>
+        <v>0.333216280922386</v>
       </c>
       <c r="F5">
-        <v>3.656993775845223</v>
+        <v>1.222288067622259</v>
       </c>
       <c r="G5">
-        <v>4.339267670826246</v>
+        <v>1.299949458491369</v>
       </c>
       <c r="H5">
-        <v>2.061043229932068</v>
+        <v>0.8488200623750686</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.447332324296866</v>
+        <v>1.71851688491077</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561246481</v>
+        <v>0.1243098614095288</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1240729425005043</v>
+        <v>0.03302792226286044</v>
       </c>
       <c r="E6">
-        <v>1.235465716026766</v>
+        <v>0.3308630769826664</v>
       </c>
       <c r="F6">
-        <v>3.626899869878883</v>
+        <v>1.215550724464379</v>
       </c>
       <c r="G6">
-        <v>4.303263164096279</v>
+        <v>1.291692836908965</v>
       </c>
       <c r="H6">
-        <v>2.044353751884842</v>
+        <v>0.8452807431618226</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.428610827881812</v>
+        <v>1.712377599108464</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622178196</v>
+        <v>0.1270341919676241</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315779786119862</v>
+        <v>0.03470671369345268</v>
       </c>
       <c r="E7">
-        <v>1.31090990958262</v>
+        <v>0.3472137901143384</v>
       </c>
       <c r="F7">
-        <v>3.837241647402038</v>
+        <v>1.262395826126067</v>
       </c>
       <c r="G7">
-        <v>4.554907267146746</v>
+        <v>1.349074614279345</v>
       </c>
       <c r="H7">
-        <v>2.161048325781394</v>
+        <v>0.8699117225502562</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.55857593667119</v>
+        <v>1.755021054646249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575068091882144</v>
+        <v>0.1391997998655086</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1665900476820923</v>
+        <v>0.04214216942487781</v>
       </c>
       <c r="E8">
-        <v>1.663681052406318</v>
+        <v>0.4198225367166089</v>
       </c>
       <c r="F8">
-        <v>4.808690486004821</v>
+        <v>1.47118785694326</v>
       </c>
       <c r="G8">
-        <v>5.716971371056786</v>
+        <v>1.604163365212003</v>
       </c>
       <c r="H8">
-        <v>2.7011891453933</v>
+        <v>0.98023762357343</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.132480705843335</v>
+        <v>1.943904251618477</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086066869</v>
+        <v>0.1635584291338716</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2466043174925545</v>
+        <v>0.05685744970638495</v>
       </c>
       <c r="E9">
-        <v>2.475205393489546</v>
+        <v>0.5642327170640442</v>
       </c>
       <c r="F9">
-        <v>6.963220771646007</v>
+        <v>1.888902018709359</v>
       </c>
       <c r="G9">
-        <v>8.295420152117913</v>
+        <v>2.112127782647462</v>
       </c>
       <c r="H9">
-        <v>3.90495917267657</v>
+        <v>1.202918706961327</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.25911396555432</v>
+        <v>2.316504389646809</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4035430215420632</v>
+        <v>0.1817500012201947</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3195780394053429</v>
+        <v>0.06778656051733378</v>
       </c>
       <c r="E10">
-        <v>3.223342820008256</v>
+        <v>0.6719446234360191</v>
       </c>
       <c r="F10">
-        <v>8.842406559566115</v>
+        <v>2.201659492699889</v>
       </c>
       <c r="G10">
-        <v>10.54794552903911</v>
+        <v>2.491042104895939</v>
       </c>
       <c r="H10">
-        <v>4.960488211714448</v>
+        <v>1.370841485233257</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.087573303855777</v>
+        <v>2.591327722520418</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4320172635535471</v>
+        <v>0.190087785889915</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3589593210580091</v>
+        <v>0.07279217337988086</v>
       </c>
       <c r="E11">
-        <v>3.631288591487376</v>
+        <v>0.7213816670721798</v>
       </c>
       <c r="F11">
-        <v>9.820535537072118</v>
+        <v>2.345399064368451</v>
       </c>
       <c r="G11">
-        <v>11.7224099143383</v>
+        <v>2.664885521213535</v>
       </c>
       <c r="H11">
-        <v>5.511853027748941</v>
+        <v>1.44827547428082</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.46463631905101</v>
+        <v>2.716530669508643</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4428269586280607</v>
+        <v>0.1932538308941787</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752633481810648</v>
+        <v>0.07469321267035411</v>
       </c>
       <c r="E12">
-        <v>3.801232012380837</v>
+        <v>0.7401723167001393</v>
       </c>
       <c r="F12">
-        <v>10.2178483775096</v>
+        <v>2.400055170825851</v>
       </c>
       <c r="G12">
-        <v>12.19995119539351</v>
+        <v>2.730945692543116</v>
       </c>
       <c r="H12">
-        <v>5.736200930869416</v>
+        <v>1.477756451588164</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.607448666631797</v>
+        <v>2.763963193734014</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4404976502398199</v>
+        <v>0.19257158332789</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3716779563503252</v>
+        <v>0.0742835337146488</v>
       </c>
       <c r="E13">
-        <v>3.763802681089203</v>
+        <v>0.7361221926845474</v>
       </c>
       <c r="F13">
-        <v>10.13086452675722</v>
+        <v>2.388273756458403</v>
       </c>
       <c r="G13">
-        <v>12.09537757619216</v>
+        <v>2.71670796254466</v>
       </c>
       <c r="H13">
-        <v>5.687065115623739</v>
+        <v>1.471400018306724</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.576690288354143</v>
+        <v>2.753746911386088</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4329060254514587</v>
+        <v>0.1903480852984956</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3602685749412018</v>
+        <v>0.0729484585700817</v>
       </c>
       <c r="E14">
-        <v>3.644911226198758</v>
+        <v>0.7229261437163217</v>
       </c>
       <c r="F14">
-        <v>9.852607558786332</v>
+        <v>2.349891060477688</v>
       </c>
       <c r="G14">
-        <v>11.76094733936554</v>
+        <v>2.670315630292464</v>
       </c>
       <c r="H14">
-        <v>5.529954588443388</v>
+        <v>1.450697669861711</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.47638504294423</v>
+        <v>2.720432585385765</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4282595438107251</v>
+        <v>0.1889872547797466</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3534821868334035</v>
+        <v>0.07213142522000737</v>
       </c>
       <c r="E15">
-        <v>3.574343968424941</v>
+        <v>0.7148524956228215</v>
       </c>
       <c r="F15">
-        <v>9.686051262822446</v>
+        <v>2.326410295331868</v>
       </c>
       <c r="G15">
-        <v>11.56083503363419</v>
+        <v>2.641929398215893</v>
       </c>
       <c r="H15">
-        <v>5.435965475903515</v>
+        <v>1.438037758433723</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.414948655393232</v>
+        <v>2.700029152110062</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4016858187138581</v>
+        <v>0.1812063398626123</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3171644564791052</v>
+        <v>0.06746016902452823</v>
       </c>
       <c r="E16">
-        <v>3.198447313802191</v>
+        <v>0.6687232001523142</v>
       </c>
       <c r="F16">
-        <v>8.781623231144181</v>
+        <v>2.192296469740057</v>
       </c>
       <c r="G16">
-        <v>10.47501223004031</v>
+        <v>2.479712166869206</v>
       </c>
       <c r="H16">
-        <v>4.926269183172565</v>
+        <v>1.365802710240757</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.062935127839523</v>
+        <v>2.583148644060884</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3854292867136735</v>
+        <v>0.1764487851811509</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2967338190699991</v>
+        <v>0.06460364233217319</v>
       </c>
       <c r="E17">
-        <v>2.988156594715903</v>
+        <v>0.6405414693056741</v>
       </c>
       <c r="F17">
-        <v>8.263294218223649</v>
+        <v>2.110407240501445</v>
       </c>
       <c r="G17">
-        <v>9.853293898477773</v>
+        <v>2.38058685249996</v>
       </c>
       <c r="H17">
-        <v>4.634675878376925</v>
+        <v>1.321762217021217</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.847034662043257</v>
+        <v>2.511489453097226</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.376094915385309</v>
+        <v>0.1737182494248515</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2855233700842774</v>
+        <v>0.06296379515380579</v>
       </c>
       <c r="E18">
-        <v>2.873090059639537</v>
+        <v>0.6243729184997164</v>
       </c>
       <c r="F18">
-        <v>7.976016237963222</v>
+        <v>2.063443689084153</v>
       </c>
       <c r="G18">
-        <v>9.508873390782639</v>
+        <v>2.323710192705676</v>
       </c>
       <c r="H18">
-        <v>4.473224940678961</v>
+        <v>1.2965291561203</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.722872568807418</v>
+        <v>2.470290675910178</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3729371237456149</v>
+        <v>0.1727947553762306</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2818100701235551</v>
+        <v>0.06240909297251562</v>
       </c>
       <c r="E19">
-        <v>2.83502347741215</v>
+        <v>0.6189053326469747</v>
       </c>
       <c r="F19">
-        <v>7.880415980618352</v>
+        <v>2.047565729167701</v>
       </c>
       <c r="G19">
-        <v>9.394281011980468</v>
+        <v>2.304475839262807</v>
       </c>
       <c r="H19">
-        <v>4.41952296081945</v>
+        <v>1.288002240429705</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.680836575609305</v>
+        <v>2.456344689235891</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3871581531683432</v>
+        <v>0.176954627914796</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2988500988087708</v>
+        <v>0.06490739369498044</v>
       </c>
       <c r="E20">
-        <v>3.009903403381969</v>
+        <v>0.6435371872360207</v>
       </c>
       <c r="F20">
-        <v>8.317299007354535</v>
+        <v>2.119110209985365</v>
       </c>
       <c r="G20">
-        <v>9.918053123684388</v>
+        <v>2.391124544869683</v>
       </c>
       <c r="H20">
-        <v>4.665039568894372</v>
+        <v>1.326440215915113</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.87001576670184</v>
+        <v>2.519115905984449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4351351131954715</v>
+        <v>0.1910009463247206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3635761746694754</v>
+        <v>0.07334044737054057</v>
       </c>
       <c r="E21">
-        <v>3.679344923286408</v>
+        <v>0.726800189790751</v>
       </c>
       <c r="F21">
-        <v>9.933502499803353</v>
+        <v>2.361158763589458</v>
       </c>
       <c r="G21">
-        <v>11.85815821520242</v>
+        <v>2.683935813114317</v>
       </c>
       <c r="H21">
-        <v>5.575618452073968</v>
+        <v>1.45677408627796</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.505846402053919</v>
+        <v>2.730217288371648</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.466650136805697</v>
+        <v>0.2002316580427816</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.414578378602755</v>
+        <v>0.07888443913425647</v>
       </c>
       <c r="E22">
-        <v>4.213978699760389</v>
+        <v>0.7816282444840539</v>
       </c>
       <c r="F22">
-        <v>11.15708772985096</v>
+        <v>2.520670277776958</v>
       </c>
       <c r="G22">
-        <v>13.33009481252668</v>
+        <v>2.876650817821144</v>
       </c>
       <c r="H22">
-        <v>6.267461421372843</v>
+        <v>1.542882076632281</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.921554627153967</v>
+        <v>2.8683033949373</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498145419795492</v>
+        <v>0.1953005061487829</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3862748291460463</v>
+        <v>0.07592231310724173</v>
       </c>
       <c r="E23">
-        <v>3.916396440104663</v>
+        <v>0.752325552932561</v>
       </c>
       <c r="F23">
-        <v>10.48361503380991</v>
+        <v>2.435410421870188</v>
       </c>
       <c r="G23">
-        <v>12.51955203874002</v>
+        <v>2.773666093207737</v>
       </c>
       <c r="H23">
-        <v>5.886395699561092</v>
+        <v>1.496837023020134</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.699669140477795</v>
+        <v>2.794595190493112</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3863764963094951</v>
+        <v>0.1767259219250121</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2978916929191939</v>
+        <v>0.06477006025150445</v>
       </c>
       <c r="E24">
-        <v>3.000053865226164</v>
+        <v>0.6421827193271525</v>
       </c>
       <c r="F24">
-        <v>8.292850652779435</v>
+        <v>2.115175238321626</v>
       </c>
       <c r="G24">
-        <v>9.88873566483602</v>
+        <v>2.386360107228029</v>
       </c>
       <c r="H24">
-        <v>4.651293205077309</v>
+        <v>1.324325024093469</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.859626127686454</v>
+        <v>2.515667989176677</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3185489263901076</v>
+        <v>0.1569161479393557</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2231678415244431</v>
+        <v>0.05285854641996934</v>
       </c>
       <c r="E25">
-        <v>2.236674442812131</v>
+        <v>0.524910646920091</v>
       </c>
       <c r="F25">
-        <v>6.342005216931426</v>
+        <v>1.774930254878313</v>
       </c>
       <c r="G25">
-        <v>7.551648860852879</v>
+        <v>1.973780395381823</v>
       </c>
       <c r="H25">
-        <v>3.55713584585601</v>
+        <v>1.14195305260256</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.95420499336683</v>
+        <v>2.215498394811675</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1425304360311941</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04416460176246062</v>
+        <v>0.176664084881196</v>
       </c>
       <c r="E2">
-        <v>0.4396191691992186</v>
+        <v>1.765433349908108</v>
       </c>
       <c r="F2">
-        <v>1.528290297222981</v>
+        <v>5.085088052737632</v>
       </c>
       <c r="G2">
-        <v>1.673767081463382</v>
+        <v>6.047613846318768</v>
       </c>
       <c r="H2">
-        <v>1.010542361786406</v>
+        <v>2.855195282128761</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.995241137946778</v>
+        <v>4.288064236591453</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329091933101978</v>
+        <v>0.2356773118709157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03830832642090343</v>
+        <v>0.1481600608386344</v>
       </c>
       <c r="E3">
-        <v>0.3823479279035951</v>
+        <v>1.477819511624659</v>
       </c>
       <c r="F3">
-        <v>1.363286054659909</v>
+        <v>4.299387531526605</v>
       </c>
       <c r="G3">
-        <v>1.472460773835678</v>
+        <v>5.107744382705164</v>
       </c>
       <c r="H3">
-        <v>0.9231199012414208</v>
+        <v>2.417775887462483</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.846526605564804</v>
+        <v>3.836929003758598</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270661492628875</v>
+        <v>0.2152931864902854</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03472637085036467</v>
+        <v>0.1316666761485692</v>
       </c>
       <c r="E4">
-        <v>0.3474053453013823</v>
+        <v>1.31180191048341</v>
       </c>
       <c r="F4">
-        <v>1.262945067803372</v>
+        <v>3.839723242349976</v>
       </c>
       <c r="G4">
-        <v>1.349747030403535</v>
+        <v>4.557876019152076</v>
       </c>
       <c r="H4">
-        <v>0.8702008080870769</v>
+        <v>2.162425671209235</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.755520437593759</v>
+        <v>3.56009691549059</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247015078378411</v>
+        <v>0.2070077212374883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326964694228707</v>
+        <v>0.1251451355863793</v>
       </c>
       <c r="E5">
-        <v>0.333216280922386</v>
+        <v>1.246240096146479</v>
       </c>
       <c r="F5">
-        <v>1.222288067622259</v>
+        <v>3.656993775845166</v>
       </c>
       <c r="G5">
-        <v>1.299949458491369</v>
+        <v>4.339267670826189</v>
       </c>
       <c r="H5">
-        <v>0.8488200623750686</v>
+        <v>2.061043229931983</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.71851688491077</v>
+        <v>3.447332324296866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243098614095288</v>
+        <v>0.2056331561246623</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03302792226286044</v>
+        <v>0.124072942500618</v>
       </c>
       <c r="E6">
-        <v>0.3308630769826664</v>
+        <v>1.235465716026766</v>
       </c>
       <c r="F6">
-        <v>1.215550724464379</v>
+        <v>3.626899869878883</v>
       </c>
       <c r="G6">
-        <v>1.291692836908965</v>
+        <v>4.303263164096279</v>
       </c>
       <c r="H6">
-        <v>0.8452807431618226</v>
+        <v>2.044353751884955</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.712377599108464</v>
+        <v>3.428610827881698</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270341919676241</v>
+        <v>0.2151813622174217</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03470671369345268</v>
+        <v>0.1315779786118583</v>
       </c>
       <c r="E7">
-        <v>0.3472137901143384</v>
+        <v>1.310909909582634</v>
       </c>
       <c r="F7">
-        <v>1.262395826126067</v>
+        <v>3.837241647402067</v>
       </c>
       <c r="G7">
-        <v>1.349074614279345</v>
+        <v>4.554907267146802</v>
       </c>
       <c r="H7">
-        <v>0.8699117225502562</v>
+        <v>2.161048325781536</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.755021054646249</v>
+        <v>3.558575936671076</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391997998655086</v>
+        <v>0.2575068091882144</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04214216942487781</v>
+        <v>0.1665900476819075</v>
       </c>
       <c r="E8">
-        <v>0.4198225367166089</v>
+        <v>1.663681052406304</v>
       </c>
       <c r="F8">
-        <v>1.47118785694326</v>
+        <v>4.808690486004849</v>
       </c>
       <c r="G8">
-        <v>1.604163365212003</v>
+        <v>5.7169713710569</v>
       </c>
       <c r="H8">
-        <v>0.98023762357343</v>
+        <v>2.701189145393414</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.943904251618477</v>
+        <v>4.132480705843307</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1635584291338716</v>
+        <v>0.3413255086067579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05685744970638495</v>
+        <v>0.2466043174923129</v>
       </c>
       <c r="E9">
-        <v>0.5642327170640442</v>
+        <v>2.475205393489574</v>
       </c>
       <c r="F9">
-        <v>1.888902018709359</v>
+        <v>6.963220771646064</v>
       </c>
       <c r="G9">
-        <v>2.112127782647462</v>
+        <v>8.295420152117742</v>
       </c>
       <c r="H9">
-        <v>1.202918706961327</v>
+        <v>3.904959172676683</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.316504389646809</v>
+        <v>5.25911396555432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1817500012201947</v>
+        <v>0.4035430215416795</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06778656051733378</v>
+        <v>0.319578039405144</v>
       </c>
       <c r="E10">
-        <v>0.6719446234360191</v>
+        <v>3.22334282000827</v>
       </c>
       <c r="F10">
-        <v>2.201659492699889</v>
+        <v>8.842406559566143</v>
       </c>
       <c r="G10">
-        <v>2.491042104895939</v>
+        <v>10.54794552903923</v>
       </c>
       <c r="H10">
-        <v>1.370841485233257</v>
+        <v>4.960488211714562</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.591327722520418</v>
+        <v>6.087573303855777</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.190087785889915</v>
+        <v>0.4320172635533055</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07279217337988086</v>
+        <v>0.3589593210582223</v>
       </c>
       <c r="E11">
-        <v>0.7213816670721798</v>
+        <v>3.63128859148739</v>
       </c>
       <c r="F11">
-        <v>2.345399064368451</v>
+        <v>9.820535537072118</v>
       </c>
       <c r="G11">
-        <v>2.664885521213535</v>
+        <v>11.7224099143383</v>
       </c>
       <c r="H11">
-        <v>1.44827547428082</v>
+        <v>5.511853027748998</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.716530669508643</v>
+        <v>6.464636319050896</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1932538308941787</v>
+        <v>0.4428269586278475</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07469321267035411</v>
+        <v>0.3752633481810932</v>
       </c>
       <c r="E12">
-        <v>0.7401723167001393</v>
+        <v>3.801232012380922</v>
       </c>
       <c r="F12">
-        <v>2.400055170825851</v>
+        <v>10.21784837750957</v>
       </c>
       <c r="G12">
-        <v>2.730945692543116</v>
+        <v>12.19995119539345</v>
       </c>
       <c r="H12">
-        <v>1.477756451588164</v>
+        <v>5.736200930869416</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.763963193734014</v>
+        <v>6.607448666631797</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.19257158332789</v>
+        <v>0.4404976502398341</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0742835337146488</v>
+        <v>0.3716779563501973</v>
       </c>
       <c r="E13">
-        <v>0.7361221926845474</v>
+        <v>3.76380268108926</v>
       </c>
       <c r="F13">
-        <v>2.388273756458403</v>
+        <v>10.13086452675719</v>
       </c>
       <c r="G13">
-        <v>2.71670796254466</v>
+        <v>12.09537757619205</v>
       </c>
       <c r="H13">
-        <v>1.471400018306724</v>
+        <v>5.687065115623682</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.753746911386088</v>
+        <v>6.57669028835403</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1903480852984956</v>
+        <v>0.4329060254515866</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0729484585700817</v>
+        <v>0.3602685749414007</v>
       </c>
       <c r="E14">
-        <v>0.7229261437163217</v>
+        <v>3.644911226198786</v>
       </c>
       <c r="F14">
-        <v>2.349891060477688</v>
+        <v>9.852607558786332</v>
       </c>
       <c r="G14">
-        <v>2.670315630292464</v>
+        <v>11.76094733936554</v>
       </c>
       <c r="H14">
-        <v>1.450697669861711</v>
+        <v>5.529954588443388</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.720432585385765</v>
+        <v>6.47638504294423</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1889872547797466</v>
+        <v>0.4282595438107251</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07213142522000737</v>
+        <v>0.3534821868334035</v>
       </c>
       <c r="E15">
-        <v>0.7148524956228215</v>
+        <v>3.574343968424884</v>
       </c>
       <c r="F15">
-        <v>2.326410295331868</v>
+        <v>9.686051262822417</v>
       </c>
       <c r="G15">
-        <v>2.641929398215893</v>
+        <v>11.56083503363408</v>
       </c>
       <c r="H15">
-        <v>1.438037758433723</v>
+        <v>5.435965475903458</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.700029152110062</v>
+        <v>6.414948655393118</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1812063398626123</v>
+        <v>0.4016858187137444</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06746016902452823</v>
+        <v>0.3171644564787073</v>
       </c>
       <c r="E16">
-        <v>0.6687232001523142</v>
+        <v>3.198447313802191</v>
       </c>
       <c r="F16">
-        <v>2.192296469740057</v>
+        <v>8.781623231144209</v>
       </c>
       <c r="G16">
-        <v>2.479712166869206</v>
+        <v>10.47501223004042</v>
       </c>
       <c r="H16">
-        <v>1.365802710240757</v>
+        <v>4.926269183172565</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.583148644060884</v>
+        <v>6.062935127839467</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1764487851811509</v>
+        <v>0.3854292867134177</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06460364233217319</v>
+        <v>0.2967338190699849</v>
       </c>
       <c r="E17">
-        <v>0.6405414693056741</v>
+        <v>2.988156594715889</v>
       </c>
       <c r="F17">
-        <v>2.110407240501445</v>
+        <v>8.263294218223649</v>
       </c>
       <c r="G17">
-        <v>2.38058685249996</v>
+        <v>9.853293898477773</v>
       </c>
       <c r="H17">
-        <v>1.321762217021217</v>
+        <v>4.634675878376981</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.511489453097226</v>
+        <v>5.8470346620432</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1737182494248515</v>
+        <v>0.376094915385309</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06296379515380579</v>
+        <v>0.2855233700839506</v>
       </c>
       <c r="E18">
-        <v>0.6243729184997164</v>
+        <v>2.873090059639523</v>
       </c>
       <c r="F18">
-        <v>2.063443689084153</v>
+        <v>7.976016237963165</v>
       </c>
       <c r="G18">
-        <v>2.323710192705676</v>
+        <v>9.50887339078281</v>
       </c>
       <c r="H18">
-        <v>1.2965291561203</v>
+        <v>4.473224940678961</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.470290675910178</v>
+        <v>5.722872568807418</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1727947553762306</v>
+        <v>0.3729371237456007</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06240909297251562</v>
+        <v>0.2818100701237825</v>
       </c>
       <c r="E19">
-        <v>0.6189053326469747</v>
+        <v>2.835023477412136</v>
       </c>
       <c r="F19">
-        <v>2.047565729167701</v>
+        <v>7.880415980618352</v>
       </c>
       <c r="G19">
-        <v>2.304475839262807</v>
+        <v>9.394281011980297</v>
       </c>
       <c r="H19">
-        <v>1.288002240429705</v>
+        <v>4.419522960819506</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.456344689235891</v>
+        <v>5.680836575609362</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.176954627914796</v>
+        <v>0.3871581531683574</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06490739369498044</v>
+        <v>0.2988500988089839</v>
       </c>
       <c r="E20">
-        <v>0.6435371872360207</v>
+        <v>3.009903403381898</v>
       </c>
       <c r="F20">
-        <v>2.119110209985365</v>
+        <v>8.317299007354507</v>
       </c>
       <c r="G20">
-        <v>2.391124544869683</v>
+        <v>9.918053123684388</v>
       </c>
       <c r="H20">
-        <v>1.326440215915113</v>
+        <v>4.665039568894372</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.519115905984449</v>
+        <v>5.87001576670184</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1910009463247206</v>
+        <v>0.435135113196182</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07334044737054057</v>
+        <v>0.3635761746698591</v>
       </c>
       <c r="E21">
-        <v>0.726800189790751</v>
+        <v>3.679344923286394</v>
       </c>
       <c r="F21">
-        <v>2.361158763589458</v>
+        <v>9.933502499803353</v>
       </c>
       <c r="G21">
-        <v>2.683935813114317</v>
+        <v>11.85815821520231</v>
       </c>
       <c r="H21">
-        <v>1.45677408627796</v>
+        <v>5.575618452073968</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.730217288371648</v>
+        <v>6.505846402053805</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2002316580427816</v>
+        <v>0.4666501368063933</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07888443913425647</v>
+        <v>0.4145783786027266</v>
       </c>
       <c r="E22">
-        <v>0.7816282444840539</v>
+        <v>4.213978699760446</v>
       </c>
       <c r="F22">
-        <v>2.520670277776958</v>
+        <v>11.15708772985101</v>
       </c>
       <c r="G22">
-        <v>2.876650817821144</v>
+        <v>13.3300948125268</v>
       </c>
       <c r="H22">
-        <v>1.542882076632281</v>
+        <v>6.2674614213729</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.8683033949373</v>
+        <v>6.92155462715408</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1953005061487829</v>
+        <v>0.4498145419795634</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07592231310724173</v>
+        <v>0.386274829146231</v>
       </c>
       <c r="E23">
-        <v>0.752325552932561</v>
+        <v>3.916396440104663</v>
       </c>
       <c r="F23">
-        <v>2.435410421870188</v>
+        <v>10.48361503380991</v>
       </c>
       <c r="G23">
-        <v>2.773666093207737</v>
+        <v>12.5195520387399</v>
       </c>
       <c r="H23">
-        <v>1.496837023020134</v>
+        <v>5.886395699561206</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.794595190493112</v>
+        <v>6.699669140477795</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1767259219250121</v>
+        <v>0.3863764963095093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06477006025150445</v>
+        <v>0.2978916929193929</v>
       </c>
       <c r="E24">
-        <v>0.6421827193271525</v>
+        <v>3.000053865226121</v>
       </c>
       <c r="F24">
-        <v>2.115175238321626</v>
+        <v>8.292850652779379</v>
       </c>
       <c r="G24">
-        <v>2.386360107228029</v>
+        <v>9.88873566483602</v>
       </c>
       <c r="H24">
-        <v>1.324325024093469</v>
+        <v>4.651293205077195</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.515667989176677</v>
+        <v>5.859626127686454</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1569161479393557</v>
+        <v>0.3185489263901076</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05285854641996934</v>
+        <v>0.2231678415244431</v>
       </c>
       <c r="E25">
-        <v>0.524910646920091</v>
+        <v>2.236674442812131</v>
       </c>
       <c r="F25">
-        <v>1.774930254878313</v>
+        <v>6.342005216931454</v>
       </c>
       <c r="G25">
-        <v>1.973780395381823</v>
+        <v>7.551648860852879</v>
       </c>
       <c r="H25">
-        <v>1.14195305260256</v>
+        <v>3.55713584585601</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.215498394811675</v>
+        <v>4.95420499336683</v>
       </c>
       <c r="O25">
         <v>0</v>
